--- a/simulation_data/two_step_algorithm/2s_error_level_11_percent_water_40.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_11_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>95.13448382339344</v>
+        <v>92.82532541150637</v>
       </c>
       <c r="D2" t="n">
-        <v>16.3335804147878</v>
+        <v>16.76473082422505</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>95.5534423062621</v>
+        <v>95.157428211382</v>
       </c>
       <c r="D3" t="n">
-        <v>16.25262453299726</v>
+        <v>14.58525888670002</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.61388922312004</v>
+        <v>91.68164851484165</v>
       </c>
       <c r="D4" t="n">
-        <v>16.8265240876183</v>
+        <v>16.23531817535617</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>91.69975214849032</v>
+        <v>89.15650278728167</v>
       </c>
       <c r="D5" t="n">
-        <v>14.83044502019124</v>
+        <v>14.40424307021946</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.53909044651824</v>
+        <v>88.13341587540791</v>
       </c>
       <c r="D6" t="n">
-        <v>15.18648322489693</v>
+        <v>15.42288260505818</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.51183940257204</v>
+        <v>89.78388017411282</v>
       </c>
       <c r="D7" t="n">
-        <v>15.08430665208917</v>
+        <v>14.2976569079594</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.7923644833718</v>
+        <v>85.57708717209489</v>
       </c>
       <c r="D8" t="n">
-        <v>15.37187166636598</v>
+        <v>14.27750742094162</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>86.30008437321514</v>
+        <v>87.21422937177523</v>
       </c>
       <c r="D9" t="n">
-        <v>13.44860267906232</v>
+        <v>15.73924645294014</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.11159010848858</v>
+        <v>83.94441870142531</v>
       </c>
       <c r="D10" t="n">
-        <v>15.99186880977328</v>
+        <v>13.26065370920628</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.64545915596332</v>
+        <v>82.74076683242968</v>
       </c>
       <c r="D11" t="n">
-        <v>14.11018822714733</v>
+        <v>14.51645538386966</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.27245954184964</v>
+        <v>81.62164378428882</v>
       </c>
       <c r="D12" t="n">
-        <v>16.53214502874485</v>
+        <v>12.69878947634983</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.76760124632877</v>
+        <v>82.07350814750561</v>
       </c>
       <c r="D13" t="n">
-        <v>16.01320815326615</v>
+        <v>14.28584258549227</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.45054855966369</v>
+        <v>77.68512242952029</v>
       </c>
       <c r="D14" t="n">
-        <v>15.04997777532344</v>
+        <v>13.4375619741722</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.56862450712066</v>
+        <v>78.52991027741858</v>
       </c>
       <c r="D15" t="n">
-        <v>15.02413687145499</v>
+        <v>14.02412882104999</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.56567987204497</v>
+        <v>77.2948560780721</v>
       </c>
       <c r="D16" t="n">
-        <v>16.20135934629094</v>
+        <v>14.45531483761641</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.8459164764388</v>
+        <v>77.41308375370571</v>
       </c>
       <c r="D17" t="n">
-        <v>13.93866458402052</v>
+        <v>14.69487658440963</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>77.03891625707328</v>
+        <v>75.05879269193466</v>
       </c>
       <c r="D18" t="n">
-        <v>16.81730583624851</v>
+        <v>12.73627601390942</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.06139719807369</v>
+        <v>75.31974630742481</v>
       </c>
       <c r="D19" t="n">
-        <v>15.73888035857208</v>
+        <v>13.92936822958909</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.02704585945895</v>
+        <v>73.41545843725517</v>
       </c>
       <c r="D20" t="n">
-        <v>13.32947024476281</v>
+        <v>13.67291690985506</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.52293269983231</v>
+        <v>71.12575009154236</v>
       </c>
       <c r="D21" t="n">
-        <v>14.64422150821056</v>
+        <v>15.31576448846674</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.90332496285944</v>
+        <v>69.81888305657719</v>
       </c>
       <c r="D22" t="n">
-        <v>12.83316541193574</v>
+        <v>13.3194949298796</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.92187731741483</v>
+        <v>70.61841666199928</v>
       </c>
       <c r="D23" t="n">
-        <v>14.11879312818072</v>
+        <v>14.40720986831056</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>71.0708610968744</v>
+        <v>70.95675462538628</v>
       </c>
       <c r="D24" t="n">
-        <v>14.87884516460728</v>
+        <v>15.46213944535908</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.9664288105142</v>
+        <v>66.0274623591658</v>
       </c>
       <c r="D25" t="n">
-        <v>15.41697431234043</v>
+        <v>16.40836771517633</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.43524304772689</v>
+        <v>67.35331602822929</v>
       </c>
       <c r="D26" t="n">
-        <v>14.89495747728018</v>
+        <v>15.77773506512365</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>67.45500383919612</v>
+        <v>70.22587682450455</v>
       </c>
       <c r="D27" t="n">
-        <v>15.41024637650372</v>
+        <v>14.71272063597554</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5258157636038</v>
+        <v>64.33709321135008</v>
       </c>
       <c r="D28" t="n">
-        <v>13.7336449059719</v>
+        <v>14.07312546144797</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.45552572533303</v>
+        <v>66.08736182679633</v>
       </c>
       <c r="D29" t="n">
-        <v>16.23775457067735</v>
+        <v>15.02527467104635</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>56.64297182897707</v>
+        <v>62.70893850005807</v>
       </c>
       <c r="D30" t="n">
-        <v>13.86792189329258</v>
+        <v>15.72646004972903</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.48104304757163</v>
+        <v>58.94039152041842</v>
       </c>
       <c r="D31" t="n">
-        <v>14.04894137589547</v>
+        <v>15.55884008786258</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.49528387577885</v>
+        <v>61.3134666287206</v>
       </c>
       <c r="D32" t="n">
-        <v>15.27311186937053</v>
+        <v>15.20438838883384</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>57.53860608145444</v>
+        <v>59.65829725582818</v>
       </c>
       <c r="D33" t="n">
-        <v>15.34876662379515</v>
+        <v>14.47351460086938</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>61.36117739928318</v>
+        <v>58.7462510703263</v>
       </c>
       <c r="D34" t="n">
-        <v>14.73544826148898</v>
+        <v>13.38590205857721</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.20236836340298</v>
+        <v>60.56551571718227</v>
       </c>
       <c r="D35" t="n">
-        <v>16.15664918244558</v>
+        <v>15.35717570331652</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.2189550564799</v>
+        <v>58.01074547851417</v>
       </c>
       <c r="D36" t="n">
-        <v>16.94104732782049</v>
+        <v>14.66127900763487</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.94598295970972</v>
+        <v>52.04953269027475</v>
       </c>
       <c r="D37" t="n">
-        <v>13.82699794877995</v>
+        <v>15.39710139877108</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.06125953938064</v>
+        <v>52.65792141809731</v>
       </c>
       <c r="D38" t="n">
-        <v>18.00482460715071</v>
+        <v>14.29470789215801</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.7458729117545</v>
+        <v>53.4312341837776</v>
       </c>
       <c r="D39" t="n">
-        <v>16.0233570036789</v>
+        <v>15.04829052905584</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.06814271638047</v>
+        <v>54.71892203635134</v>
       </c>
       <c r="D40" t="n">
-        <v>14.99598176469802</v>
+        <v>14.5646963430212</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.23457840918459</v>
+        <v>51.07457688827422</v>
       </c>
       <c r="D41" t="n">
-        <v>16.82196772796339</v>
+        <v>15.16966416837229</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.84491756537548</v>
+        <v>50.22484435758738</v>
       </c>
       <c r="D42" t="n">
-        <v>15.51024829269643</v>
+        <v>15.41376590091515</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.91215590429</v>
+        <v>48.37130796900732</v>
       </c>
       <c r="D43" t="n">
-        <v>14.73840538572044</v>
+        <v>14.56395883353768</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>50.14805893515882</v>
+        <v>46.95814407721495</v>
       </c>
       <c r="D44" t="n">
-        <v>17.10600630874553</v>
+        <v>17.71926373152671</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>49.62658221230914</v>
+        <v>44.7246284745042</v>
       </c>
       <c r="D45" t="n">
-        <v>15.74037768753588</v>
+        <v>15.51383916965481</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.39189974300891</v>
+        <v>47.69995307546371</v>
       </c>
       <c r="D46" t="n">
-        <v>14.95168117132781</v>
+        <v>14.33661199882911</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.76565099364812</v>
+        <v>44.9233040927294</v>
       </c>
       <c r="D47" t="n">
-        <v>13.80212465032841</v>
+        <v>14.92606721105544</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.58216215139257</v>
+        <v>45.36832548497435</v>
       </c>
       <c r="D48" t="n">
-        <v>15.36362825048133</v>
+        <v>15.50091039408341</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.60971586982369</v>
+        <v>45.47492513188553</v>
       </c>
       <c r="D49" t="n">
-        <v>14.5164655298039</v>
+        <v>14.41801502114754</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.96054069073904</v>
+        <v>42.1237289194195</v>
       </c>
       <c r="D50" t="n">
-        <v>13.03173358400063</v>
+        <v>14.5604719916918</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>42.09397998198262</v>
+        <v>41.17353857504235</v>
       </c>
       <c r="D51" t="n">
-        <v>14.8293679523317</v>
+        <v>12.58635963881165</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.83263080874261</v>
+        <v>41.62234014809871</v>
       </c>
       <c r="D52" t="n">
-        <v>13.78717373279173</v>
+        <v>15.93944633909336</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.85569427323814</v>
+        <v>39.50488624207215</v>
       </c>
       <c r="D53" t="n">
-        <v>14.04888830457399</v>
+        <v>12.30081099424737</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>40.3290461308213</v>
+        <v>36.8254584883209</v>
       </c>
       <c r="D54" t="n">
-        <v>16.86639472730248</v>
+        <v>14.10653696906063</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.16824719620881</v>
+        <v>37.61442705564279</v>
       </c>
       <c r="D55" t="n">
-        <v>14.42481089918146</v>
+        <v>12.82008404542664</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.57239814871915</v>
+        <v>36.79641136002285</v>
       </c>
       <c r="D56" t="n">
-        <v>14.92897998149173</v>
+        <v>15.81351871132822</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.31072499712914</v>
+        <v>34.28583622985037</v>
       </c>
       <c r="D57" t="n">
-        <v>14.88834033573908</v>
+        <v>13.4712686109637</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>39.04482154030502</v>
+        <v>35.15970679576259</v>
       </c>
       <c r="D58" t="n">
-        <v>16.0291946832762</v>
+        <v>15.91135672342339</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.11372316829059</v>
+        <v>33.44182434118456</v>
       </c>
       <c r="D59" t="n">
-        <v>15.49949061167207</v>
+        <v>14.69212404229678</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>29.65390527992621</v>
+        <v>30.46242357248641</v>
       </c>
       <c r="D60" t="n">
-        <v>15.72669567812439</v>
+        <v>14.73966983660585</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.51868234489724</v>
+        <v>30.82518737252906</v>
       </c>
       <c r="D61" t="n">
-        <v>14.30080977684418</v>
+        <v>16.18720542096077</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>32.95135295637281</v>
+        <v>30.060071000071</v>
       </c>
       <c r="D62" t="n">
-        <v>14.84541600716491</v>
+        <v>14.25443410906606</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>26.10952693468573</v>
+        <v>27.79286740559158</v>
       </c>
       <c r="D63" t="n">
-        <v>14.6765739661045</v>
+        <v>14.63448387345281</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.51406354520104</v>
+        <v>26.43443969492523</v>
       </c>
       <c r="D64" t="n">
-        <v>16.82049891504623</v>
+        <v>14.4631714034945</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>29.68615234286207</v>
+        <v>28.74286714660358</v>
       </c>
       <c r="D65" t="n">
-        <v>16.01980540867731</v>
+        <v>14.3725263664272</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.84602886328513</v>
+        <v>24.28777193802904</v>
       </c>
       <c r="D66" t="n">
-        <v>12.34637174653968</v>
+        <v>15.29410419995629</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.72089350218824</v>
+        <v>24.5871563780067</v>
       </c>
       <c r="D67" t="n">
-        <v>14.50323491962711</v>
+        <v>15.4107079971259</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.02720182358847</v>
+        <v>25.83023459872102</v>
       </c>
       <c r="D68" t="n">
-        <v>14.49825073348533</v>
+        <v>15.20877191221146</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.36608968738136</v>
+        <v>24.42359369867386</v>
       </c>
       <c r="D69" t="n">
-        <v>15.72906775137163</v>
+        <v>15.12014218439566</v>
       </c>
     </row>
   </sheetData>
